--- a/initial_claims/CO/CO_regular_UI_data.xlsx
+++ b/initial_claims/CO/CO_regular_UI_data.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/Documents/GitHub/coronavirus-unemployment/initial_claims/CO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64895E14-81DA-C044-A58D-C70C715F42D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04BCF3B3-8B79-2344-95B1-0DE2562CE34C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="31180" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27600" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reg County-Level Initial Claims" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="75">
   <si>
     <t>Adams</t>
   </si>
@@ -911,13 +903,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO35"/>
+  <dimension ref="A1:BO38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S14" sqref="S14"/>
+      <selection pane="bottomRight" activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4310,84 +4302,666 @@
         <v>9</v>
       </c>
     </row>
+    <row r="18" spans="1:67" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>24</v>
+      </c>
+      <c r="B18" s="3">
+        <v>43995</v>
+      </c>
+      <c r="C18" s="21">
+        <v>9761</v>
+      </c>
+      <c r="D18" s="21">
+        <v>972</v>
+      </c>
+      <c r="E18" s="21">
+        <v>20</v>
+      </c>
+      <c r="F18" s="21">
+        <v>1326</v>
+      </c>
+      <c r="G18" s="21">
+        <v>13</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" s="21">
+        <v>523</v>
+      </c>
+      <c r="K18" s="21">
+        <v>105</v>
+      </c>
+      <c r="L18" s="21">
+        <v>19</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="N18" s="21">
+        <v>19</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="P18" s="21">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="R18" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="S18" s="21">
+        <v>30</v>
+      </c>
+      <c r="T18" s="21">
+        <v>1615</v>
+      </c>
+      <c r="U18" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="V18" s="21">
+        <v>417</v>
+      </c>
+      <c r="W18" s="21">
+        <v>114</v>
+      </c>
+      <c r="X18" s="21">
+        <v>11</v>
+      </c>
+      <c r="Y18" s="21">
+        <v>1052</v>
+      </c>
+      <c r="Z18" s="21">
+        <v>53</v>
+      </c>
+      <c r="AA18" s="21">
+        <v>79</v>
+      </c>
+      <c r="AB18" s="21">
+        <v>10</v>
+      </c>
+      <c r="AC18" s="21">
+        <v>47</v>
+      </c>
+      <c r="AD18" s="21">
+        <v>21</v>
+      </c>
+      <c r="AE18" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF18" s="21">
+        <v>7</v>
+      </c>
+      <c r="AG18" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH18" s="21">
+        <v>922</v>
+      </c>
+      <c r="AI18" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ18" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK18" s="21">
+        <v>15</v>
+      </c>
+      <c r="AL18" s="21">
+        <v>73</v>
+      </c>
+      <c r="AM18" s="21">
+        <v>520</v>
+      </c>
+      <c r="AN18" s="21">
+        <v>13</v>
+      </c>
+      <c r="AO18" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP18" s="21">
+        <v>27</v>
+      </c>
+      <c r="AQ18" s="21">
+        <v>278</v>
+      </c>
+      <c r="AR18" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS18" s="21">
+        <v>17</v>
+      </c>
+      <c r="AT18" s="21">
+        <v>39</v>
+      </c>
+      <c r="AU18" s="21">
+        <v>47</v>
+      </c>
+      <c r="AV18" s="21">
+        <v>53</v>
+      </c>
+      <c r="AW18" s="21">
+        <v>32</v>
+      </c>
+      <c r="AX18" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY18" s="21">
+        <v>14</v>
+      </c>
+      <c r="AZ18" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA18" s="21">
+        <v>33</v>
+      </c>
+      <c r="BB18" s="21">
+        <v>10</v>
+      </c>
+      <c r="BC18" s="21">
+        <v>296</v>
+      </c>
+      <c r="BD18" s="21">
+        <v>9</v>
+      </c>
+      <c r="BE18" s="21">
+        <v>20</v>
+      </c>
+      <c r="BF18" s="21">
+        <v>56</v>
+      </c>
+      <c r="BG18" s="21">
+        <v>36</v>
+      </c>
+      <c r="BH18" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI18" s="21">
+        <v>21</v>
+      </c>
+      <c r="BJ18" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="BK18" s="21">
+        <v>60</v>
+      </c>
+      <c r="BL18" s="21">
+        <v>29</v>
+      </c>
+      <c r="BM18" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN18" s="21">
+        <v>645</v>
+      </c>
+      <c r="BO18" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="19" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="C19" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="AD19" s="20"/>
+      <c r="A19" s="2">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44002</v>
+      </c>
+      <c r="C19" s="21">
+        <v>9455</v>
+      </c>
+      <c r="D19" s="21">
+        <v>983</v>
+      </c>
+      <c r="E19" s="21">
+        <v>30</v>
+      </c>
+      <c r="F19" s="21">
+        <v>1239</v>
+      </c>
+      <c r="G19" s="21">
+        <v>14</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" s="21">
+        <v>493</v>
+      </c>
+      <c r="K19" s="21">
+        <v>122</v>
+      </c>
+      <c r="L19" s="21">
+        <v>15</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="N19" s="21">
+        <v>13</v>
+      </c>
+      <c r="O19" s="21">
+        <v>8</v>
+      </c>
+      <c r="P19" s="21">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="R19" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="S19" s="21">
+        <v>40</v>
+      </c>
+      <c r="T19" s="21">
+        <v>1549</v>
+      </c>
+      <c r="U19" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="V19" s="21">
+        <v>443</v>
+      </c>
+      <c r="W19" s="21">
+        <v>85</v>
+      </c>
+      <c r="X19" s="21">
+        <v>22</v>
+      </c>
+      <c r="Y19" s="21">
+        <v>1042</v>
+      </c>
+      <c r="Z19" s="21">
+        <v>49</v>
+      </c>
+      <c r="AA19" s="21">
+        <v>76</v>
+      </c>
+      <c r="AB19" s="21">
+        <v>7</v>
+      </c>
+      <c r="AC19" s="21">
+        <v>23</v>
+      </c>
+      <c r="AD19" s="21">
+        <v>18</v>
+      </c>
+      <c r="AE19" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF19" s="21">
+        <v>7</v>
+      </c>
+      <c r="AG19" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH19" s="21">
+        <v>997</v>
+      </c>
+      <c r="AI19" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ19" s="21">
+        <v>9</v>
+      </c>
+      <c r="AK19" s="21">
+        <v>7</v>
+      </c>
+      <c r="AL19" s="21">
+        <v>67</v>
+      </c>
+      <c r="AM19" s="21">
+        <v>491</v>
+      </c>
+      <c r="AN19" s="21">
+        <v>12</v>
+      </c>
+      <c r="AO19" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP19" s="21">
+        <v>20</v>
+      </c>
+      <c r="AQ19" s="21">
+        <v>236</v>
+      </c>
+      <c r="AR19" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS19" s="21">
+        <v>11</v>
+      </c>
+      <c r="AT19" s="21">
+        <v>23</v>
+      </c>
+      <c r="AU19" s="21">
+        <v>47</v>
+      </c>
+      <c r="AV19" s="21">
+        <v>61</v>
+      </c>
+      <c r="AW19" s="21">
+        <v>17</v>
+      </c>
+      <c r="AX19" s="21">
+        <v>6</v>
+      </c>
+      <c r="AY19" s="21">
+        <v>25</v>
+      </c>
+      <c r="AZ19" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA19" s="21">
+        <v>36</v>
+      </c>
+      <c r="BB19" s="21">
+        <v>15</v>
+      </c>
+      <c r="BC19" s="21">
+        <v>310</v>
+      </c>
+      <c r="BD19" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE19" s="21">
+        <v>24</v>
+      </c>
+      <c r="BF19" s="21">
+        <v>46</v>
+      </c>
+      <c r="BG19" s="21">
+        <v>21</v>
+      </c>
+      <c r="BH19" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI19" s="21">
+        <v>13</v>
+      </c>
+      <c r="BJ19" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="BK19" s="21">
+        <v>62</v>
+      </c>
+      <c r="BL19" s="21">
+        <v>31</v>
+      </c>
+      <c r="BM19" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN19" s="21">
+        <v>551</v>
+      </c>
+      <c r="BO19" s="21">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="C20" s="15" t="s">
+      <c r="A20" s="2">
+        <v>26</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44009</v>
+      </c>
+      <c r="C20" s="21">
+        <v>8073</v>
+      </c>
+      <c r="D20" s="21">
+        <v>862</v>
+      </c>
+      <c r="E20" s="21">
+        <v>33</v>
+      </c>
+      <c r="F20" s="21">
+        <v>1074</v>
+      </c>
+      <c r="G20" s="21">
+        <v>12</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="21">
+        <v>402</v>
+      </c>
+      <c r="K20" s="21">
+        <v>94</v>
+      </c>
+      <c r="L20" s="21">
+        <v>16</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="N20" s="21">
+        <v>15</v>
+      </c>
+      <c r="O20" s="21">
+        <v>11</v>
+      </c>
+      <c r="P20" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q20" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="R20" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="S20" s="21">
+        <v>32</v>
+      </c>
+      <c r="T20" s="21">
+        <v>1393</v>
+      </c>
+      <c r="U20" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="V20" s="21">
+        <v>341</v>
+      </c>
+      <c r="W20" s="21">
+        <v>79</v>
+      </c>
+      <c r="X20" s="21">
+        <v>27</v>
+      </c>
+      <c r="Y20" s="21">
+        <v>978</v>
+      </c>
+      <c r="Z20" s="21">
+        <v>34</v>
+      </c>
+      <c r="AA20" s="21">
+        <v>64</v>
+      </c>
+      <c r="AB20" s="21">
+        <v>6</v>
+      </c>
+      <c r="AC20" s="21">
+        <v>15</v>
+      </c>
+      <c r="AD20" s="21">
+        <v>12</v>
+      </c>
+      <c r="AE20" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF20" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG20" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH20" s="21">
+        <v>777</v>
+      </c>
+      <c r="AI20" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ20" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK20" s="21">
+        <v>11</v>
+      </c>
+      <c r="AL20" s="21">
+        <v>49</v>
+      </c>
+      <c r="AM20" s="21">
+        <v>383</v>
+      </c>
+      <c r="AN20" s="21">
+        <v>13</v>
+      </c>
+      <c r="AO20" s="21">
+        <v>7</v>
+      </c>
+      <c r="AP20" s="21">
+        <v>20</v>
+      </c>
+      <c r="AQ20" s="21">
+        <v>179</v>
+      </c>
+      <c r="AR20" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS20" s="21">
+        <v>13</v>
+      </c>
+      <c r="AT20" s="21">
+        <v>25</v>
+      </c>
+      <c r="AU20" s="21">
+        <v>34</v>
+      </c>
+      <c r="AV20" s="21">
+        <v>39</v>
+      </c>
+      <c r="AW20" s="21">
+        <v>26</v>
+      </c>
+      <c r="AX20" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY20" s="21">
+        <v>8</v>
+      </c>
+      <c r="AZ20" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA20" s="21">
+        <v>22</v>
+      </c>
+      <c r="BB20" s="21">
+        <v>13</v>
+      </c>
+      <c r="BC20" s="21">
+        <v>315</v>
+      </c>
+      <c r="BD20" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE20" s="21">
+        <v>28</v>
+      </c>
+      <c r="BF20" s="21">
+        <v>35</v>
+      </c>
+      <c r="BG20" s="21">
+        <v>13</v>
+      </c>
+      <c r="BH20" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI20" s="21">
+        <v>14</v>
+      </c>
+      <c r="BJ20" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="BK20" s="21">
+        <v>30</v>
+      </c>
+      <c r="BL20" s="21">
+        <v>28</v>
+      </c>
+      <c r="BM20" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN20" s="21">
+        <v>456</v>
+      </c>
+      <c r="BO20" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:67" x14ac:dyDescent="0.15">
+      <c r="C22" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="AD22" s="20"/>
+    </row>
+    <row r="23" spans="1:67" x14ac:dyDescent="0.15">
+      <c r="C23" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
     </row>
-    <row r="21" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+    <row r="24" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
     </row>
-    <row r="22" spans="1:67" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="23" t="s">
+    <row r="25" spans="1:67" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="25"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="25"/>
     </row>
-    <row r="23" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
+    <row r="26" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
     </row>
-    <row r="24" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="30" t="s">
+    <row r="27" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="32"/>
-    </row>
-    <row r="25" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="32"/>
-    </row>
-    <row r="26" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="32"/>
-    </row>
-    <row r="27" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
@@ -4413,7 +4987,7 @@
       <c r="H29" s="31"/>
       <c r="I29" s="32"/>
     </row>
-    <row r="30" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
@@ -4431,7 +5005,7 @@
       <c r="H31" s="31"/>
       <c r="I31" s="32"/>
     </row>
-    <row r="32" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="30"/>
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>
@@ -4449,21 +5023,48 @@
       <c r="H33" s="31"/>
       <c r="I33" s="32"/>
     </row>
-    <row r="34" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="33"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="35"/>
+    <row r="34" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="32"/>
     </row>
-    <row r="35" spans="3:9" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C35" s="30"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="32"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C36" s="30"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="32"/>
+    </row>
+    <row r="37" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="33"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="35"/>
+    </row>
+    <row r="38" spans="3:9" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C22:I23"/>
+    <mergeCell ref="C25:I26"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C24:I34"/>
+    <mergeCell ref="C27:I37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
